--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_quarter.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.08386773819799023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09286142122547612</v>
+        <v>0.08407699145275002</v>
       </c>
       <c r="H2" t="n">
-        <v>10.72365038181203</v>
+        <v>0.2495038727118119</v>
       </c>
       <c r="I2" t="n">
-        <v>3.97592614545131</v>
+        <v>-10.87417598955746</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1163557203900243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1000778881328883</v>
+        <v>0.09506055060865062</v>
       </c>
       <c r="H3" t="n">
-        <v>-13.98971378680199</v>
+        <v>-18.30178156260155</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.01542527876629707</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.008167263470164389</v>
+        <v>-0.0803340366079255</v>
       </c>
       <c r="H4" t="n">
-        <v>-47.05273341309611</v>
+        <v>-420.7947151233894</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.07185167403132267</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.001870473346095512</v>
+        <v>-0.03159704916454497</v>
       </c>
       <c r="H5" t="n">
-        <v>-97.39675745720258</v>
+        <v>56.0246165583133</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03554566505616424</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02069020098683234</v>
+        <v>0.04167323674598129</v>
       </c>
       <c r="H6" t="n">
-        <v>-41.79261815993425</v>
+        <v>17.23859064146115</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.02029509832022692</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03495014397508034</v>
+        <v>0.02941654177588967</v>
       </c>
       <c r="H7" t="n">
-        <v>72.20977904919833</v>
+        <v>44.94407128134949</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1410978967445591</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1535731904079918</v>
+        <v>-0.1539740972955305</v>
       </c>
       <c r="H8" t="n">
-        <v>8.841587260522902</v>
+        <v>-9.125721111408348</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.1368870102181998</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.166050089665557</v>
+        <v>-0.1401472245702647</v>
       </c>
       <c r="H9" t="n">
-        <v>21.30449003223232</v>
+        <v>-2.381682781198953</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1080271231374757</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09481186121839551</v>
+        <v>-0.08264911212201734</v>
       </c>
       <c r="H10" t="n">
-        <v>-12.23328136051758</v>
+        <v>23.49225849804611</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0665408616371513</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08083127577275506</v>
+        <v>-0.08259246908123424</v>
       </c>
       <c r="H11" t="n">
-        <v>21.47614831549626</v>
+        <v>-24.12293296052085</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.415196323414642</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3344222486513176</v>
+        <v>-0.3870528409123202</v>
       </c>
       <c r="H12" t="n">
-        <v>-19.45442919605485</v>
+        <v>6.778355422530064</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.4488993880358551</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4613820846660743</v>
+        <v>-0.5023355914908951</v>
       </c>
       <c r="H13" t="n">
-        <v>2.780733715150918</v>
+        <v>-11.90382630924235</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05073569601295556</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02061690549839621</v>
+        <v>-0.1013673296106214</v>
       </c>
       <c r="H14" t="n">
-        <v>-59.36410236072921</v>
+        <v>-99.79489309604989</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08269143740784293</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00673665435924105</v>
+        <v>0.03268301130920041</v>
       </c>
       <c r="H15" t="n">
-        <v>-108.1467375225504</v>
+        <v>139.5240575490354</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1460226857953172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09554047758743031</v>
+        <v>0.1284386701063236</v>
       </c>
       <c r="H16" t="n">
-        <v>-34.57148314519345</v>
+        <v>-12.04197525420225</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1226214852840535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.170513959199198</v>
+        <v>0.1518004176716578</v>
       </c>
       <c r="H17" t="n">
-        <v>39.0571634360824</v>
+        <v>23.79593781628978</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.138457180644299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1477924947506347</v>
+        <v>0.1207208176661175</v>
       </c>
       <c r="H18" t="n">
-        <v>6.742383502895692</v>
+        <v>-12.80999865492479</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09540674480902199</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1289239316496003</v>
+        <v>0.1317670490046652</v>
       </c>
       <c r="H19" t="n">
-        <v>35.13083577861344</v>
+        <v>38.11083196311385</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.02563405214441146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03745304874645877</v>
+        <v>0.04108054488050385</v>
       </c>
       <c r="H20" t="n">
-        <v>46.10662619965061</v>
+        <v>60.2577097412198</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07516711252654941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05125488140918474</v>
+        <v>0.03634350327225206</v>
       </c>
       <c r="H21" t="n">
-        <v>-31.81209216852483</v>
+        <v>-51.64972811824406</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1217,10 +1217,10 @@
         <v>0.1004365069723881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1235072555826055</v>
+        <v>0.1112481793794625</v>
       </c>
       <c r="H24" t="n">
-        <v>22.97048085967386</v>
+        <v>10.76468381168089</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1250,10 +1250,10 @@
         <v>0.1515465340033774</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1421105134938156</v>
+        <v>0.1401739454478299</v>
       </c>
       <c r="H25" t="n">
-        <v>-6.226483879434356</v>
+        <v>-7.5043541116513</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1283,10 +1283,10 @@
         <v>0.07912471148881932</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07102960209538932</v>
+        <v>0.06757116481109801</v>
       </c>
       <c r="H26" t="n">
-        <v>-10.23082326761327</v>
+        <v>-14.60169201293565</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1316,10 +1316,10 @@
         <v>0.09985262107691743</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05307141518690633</v>
+        <v>0.07280490676445721</v>
       </c>
       <c r="H27" t="n">
-        <v>-46.85025328876955</v>
+        <v>-27.0876357783589</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1349,10 +1349,10 @@
         <v>-0.2131191845751652</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2452386513473724</v>
+        <v>-0.2511424702665349</v>
       </c>
       <c r="H28" t="n">
-        <v>15.07112878469135</v>
+        <v>-17.8413246874822</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1382,10 +1382,10 @@
         <v>-0.2053066758478273</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2151914162002302</v>
+        <v>-0.2221356457444656</v>
       </c>
       <c r="H29" t="n">
-        <v>4.814621985175693</v>
+        <v>-8.196991075493266</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1415,10 +1415,10 @@
         <v>0.04413164265688801</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05790894186927832</v>
+        <v>0.05440179504616999</v>
       </c>
       <c r="H30" t="n">
-        <v>31.21864128082704</v>
+        <v>23.27162954057643</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1448,10 +1448,10 @@
         <v>0.02633311185268182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03341692154470394</v>
+        <v>0.0202199629916218</v>
       </c>
       <c r="H31" t="n">
-        <v>26.90076938742311</v>
+        <v>-23.2146845965622</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1481,10 +1481,10 @@
         <v>0.09496050876403064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1015477856189285</v>
+        <v>0.1147697996080134</v>
       </c>
       <c r="H32" t="n">
-        <v>6.936859269853652</v>
+        <v>20.86055677440321</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1514,10 +1514,10 @@
         <v>0.1039648869556523</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1255211020138767</v>
+        <v>0.1148658987707932</v>
       </c>
       <c r="H33" t="n">
-        <v>20.73413023323876</v>
+        <v>10.48528222782648</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1547,10 +1547,10 @@
         <v>0.04642769130193861</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0349750771785217</v>
+        <v>0.006739757988254588</v>
       </c>
       <c r="H34" t="n">
-        <v>-24.66763649507316</v>
+        <v>-85.48332299268742</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1580,10 +1580,10 @@
         <v>0.007576527544790857</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02175900263570801</v>
+        <v>0.006582357565931249</v>
       </c>
       <c r="H35" t="n">
-        <v>187.1896460096437</v>
+        <v>-13.12171008397028</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1613,10 +1613,10 @@
         <v>0.05773624592896012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04969676838589746</v>
+        <v>0.05956327806959027</v>
       </c>
       <c r="H36" t="n">
-        <v>-13.92448957099601</v>
+        <v>3.164445680930076</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1646,10 +1646,10 @@
         <v>0.07032615937045415</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09419931585721013</v>
+        <v>0.01330912456872372</v>
       </c>
       <c r="H37" t="n">
-        <v>33.94633903011873</v>
+        <v>-81.07514374755516</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1679,10 +1679,10 @@
         <v>0.05238641136844833</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02036833662359807</v>
+        <v>0.00593796508307031</v>
       </c>
       <c r="H38" t="n">
-        <v>-61.11904577631431</v>
+        <v>-88.66506613459941</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1712,10 +1712,10 @@
         <v>0.02073732932611748</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04903404027363369</v>
+        <v>0.04721442479372522</v>
       </c>
       <c r="H39" t="n">
-        <v>136.4530142841399</v>
+        <v>127.67842498533</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1745,10 +1745,10 @@
         <v>-0.008490989520810347</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.01229753419120021</v>
+        <v>-0.001755392655731389</v>
       </c>
       <c r="H40" t="n">
-        <v>44.83040122780156</v>
+        <v>79.32640652271277</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1778,10 +1778,10 @@
         <v>0.03535585401105827</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01887494637970947</v>
+        <v>0.03052246486384081</v>
       </c>
       <c r="H41" t="n">
-        <v>-46.6143672450793</v>
+        <v>-13.67068985437523</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1811,10 +1811,10 @@
         <v>0.1336861257851496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1357777311718231</v>
+        <v>0.1289266584298991</v>
       </c>
       <c r="H42" t="n">
-        <v>1.564564291462053</v>
+        <v>-3.560180480433381</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1844,10 +1844,10 @@
         <v>0.1489763344906571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1310625997664646</v>
+        <v>0.1494987561138102</v>
       </c>
       <c r="H43" t="n">
-        <v>-12.02455060089825</v>
+        <v>0.3506742362397638</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1877,10 +1877,10 @@
         <v>-0.008511481271239187</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0002909665001172991</v>
+        <v>-0.001494510762795267</v>
       </c>
       <c r="H44" t="n">
-        <v>-103.4185177743443</v>
+        <v>82.44123772150789</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1910,10 +1910,10 @@
         <v>-0.01097986505977733</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.01328793486685519</v>
+        <v>0.00404352435017862</v>
       </c>
       <c r="H45" t="n">
-        <v>21.02093053523069</v>
+        <v>136.8267217143798</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1943,10 +1943,10 @@
         <v>-0.003293045908710408</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.004638473512697241</v>
+        <v>-0.02747829481516197</v>
       </c>
       <c r="H46" t="n">
-        <v>40.85663064787692</v>
+        <v>-734.434003561243</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1976,10 +1976,10 @@
         <v>-0.009278481095242833</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02649542906772791</v>
+        <v>-0.005188237060141277</v>
       </c>
       <c r="H47" t="n">
-        <v>185.5578277926586</v>
+        <v>44.08312085906672</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2009,10 +2009,10 @@
         <v>0.05027211201244799</v>
       </c>
       <c r="G48" t="n">
-        <v>0.07859714930593836</v>
+        <v>0.06605263008404766</v>
       </c>
       <c r="H48" t="n">
-        <v>56.343440049777</v>
+        <v>31.39020311637638</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2042,10 +2042,10 @@
         <v>0.0660647836333926</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06889451463488115</v>
+        <v>0.06842467974841773</v>
       </c>
       <c r="H49" t="n">
-        <v>4.283266887228936</v>
+        <v>3.572093913333144</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>0.1612576803179708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1419786942393796</v>
+        <v>0.1427981168115234</v>
       </c>
       <c r="H50" t="n">
-        <v>-11.95539092499443</v>
+        <v>-11.44724609088292</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2108,10 +2108,10 @@
         <v>0.1711149594717241</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1663780198323195</v>
+        <v>0.1400383794659987</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.768279087946917</v>
+        <v>-18.16122921202611</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2141,10 +2141,10 @@
         <v>-0.1604310016173561</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1359450400434207</v>
+        <v>-0.1752230513571305</v>
       </c>
       <c r="H52" t="n">
-        <v>-15.2626121679006</v>
+        <v>-9.220194096309964</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2174,10 +2174,10 @@
         <v>-0.1260545003542003</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1403630692481873</v>
+        <v>-0.144913957043227</v>
       </c>
       <c r="H53" t="n">
-        <v>11.35109722681967</v>
+        <v>-14.96135134884795</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2207,10 +2207,10 @@
         <v>0.09372239519925994</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1073916485102838</v>
+        <v>0.09126263002600364</v>
       </c>
       <c r="H54" t="n">
-        <v>14.58483138631074</v>
+        <v>-2.624522311904939</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2240,10 +2240,10 @@
         <v>0.113080746643218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1158581448550996</v>
+        <v>0.1208028971734723</v>
       </c>
       <c r="H55" t="n">
-        <v>2.456119449444907</v>
+        <v>6.828881803034531</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2273,10 +2273,10 @@
         <v>-0.007300771504361519</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.03887810358799041</v>
+        <v>-0.0073564917752215</v>
       </c>
       <c r="H56" t="n">
-        <v>432.5204817705147</v>
+        <v>-0.7632107213147814</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2306,10 +2306,10 @@
         <v>-0.02286739124119412</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01286113508969415</v>
+        <v>-0.02343193090678332</v>
       </c>
       <c r="H57" t="n">
-        <v>-43.75775113986046</v>
+        <v>-2.468754129558146</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2339,10 +2339,10 @@
         <v>0.05638797256277781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02283734469307781</v>
+        <v>0.03185962551019064</v>
       </c>
       <c r="H58" t="n">
-        <v>-59.4996172851355</v>
+        <v>-43.49925336520885</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2372,10 +2372,10 @@
         <v>0.07181992597016275</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06803815594893901</v>
+        <v>0.07433733047692882</v>
       </c>
       <c r="H59" t="n">
-        <v>-5.265627846504399</v>
+        <v>3.505161656407051</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2405,10 +2405,10 @@
         <v>0.06997395344439951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.07683231224373661</v>
+        <v>0.06637762220727771</v>
       </c>
       <c r="H60" t="n">
-        <v>9.801302430034452</v>
+        <v>-5.139528438934647</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2438,10 +2438,10 @@
         <v>0.04752678553020755</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07001996881488549</v>
+        <v>0.0791779447804694</v>
       </c>
       <c r="H61" t="n">
-        <v>47.32738188317301</v>
+        <v>66.59646533457367</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2471,10 +2471,10 @@
         <v>0.07296032751184069</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06529810902313384</v>
+        <v>0.07224223508638043</v>
       </c>
       <c r="H62" t="n">
-        <v>-10.5018970583203</v>
+        <v>-0.9842231387238702</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2504,10 +2504,10 @@
         <v>0.06539350454256343</v>
       </c>
       <c r="G63" t="n">
-        <v>0.05833120012411428</v>
+        <v>0.08046696407190683</v>
       </c>
       <c r="H63" t="n">
-        <v>-10.79970322412133</v>
+        <v>23.05039259599913</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2537,10 +2537,10 @@
         <v>-0.04141550755634531</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.05284523191236774</v>
+        <v>-0.03535014524168426</v>
       </c>
       <c r="H64" t="n">
-        <v>27.59769233896851</v>
+        <v>14.64514785049825</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2570,10 +2570,10 @@
         <v>-0.04932370769039912</v>
       </c>
       <c r="G65" t="n">
-        <v>0.001608724902461403</v>
+        <v>0.01803228992548703</v>
       </c>
       <c r="H65" t="n">
-        <v>-103.2615652346317</v>
+        <v>136.5590722390017</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2603,10 +2603,10 @@
         <v>0.01893397540736123</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03275665826033555</v>
+        <v>0.03136840711406265</v>
       </c>
       <c r="H66" t="n">
-        <v>73.00465198449703</v>
+        <v>65.67258823980045</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2636,10 +2636,10 @@
         <v>0.02614988585447288</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05213184903263229</v>
+        <v>0.05162462178504321</v>
       </c>
       <c r="H67" t="n">
-        <v>99.35784547111226</v>
+        <v>97.41815345711319</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2669,10 +2669,10 @@
         <v>0.0005699533762532117</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.005866924987479663</v>
+        <v>-0.001515185505012106</v>
       </c>
       <c r="H68" t="n">
-        <v>-1129.369283861068</v>
+        <v>-365.8437633921408</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2702,10 +2702,10 @@
         <v>-0.01291230679249397</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01250008701664291</v>
+        <v>-0.01414314016496307</v>
       </c>
       <c r="H69" t="n">
-        <v>-3.192456487253597</v>
+        <v>-9.532250063827426</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2735,10 +2735,10 @@
         <v>-0.02744806811673924</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.03121010987896173</v>
+        <v>-0.0482052701084016</v>
       </c>
       <c r="H70" t="n">
-        <v>13.70603477892204</v>
+        <v>-75.62354444538688</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2768,10 +2768,10 @@
         <v>-0.05509195098979366</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.0518786885780458</v>
+        <v>-0.06732241194170754</v>
       </c>
       <c r="H71" t="n">
-        <v>-5.832544235623728</v>
+        <v>-22.20008682244654</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2801,10 +2801,10 @@
         <v>-0.1483341461777897</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1616761618339957</v>
+        <v>-0.1623879228114489</v>
       </c>
       <c r="H72" t="n">
-        <v>8.994568007432743</v>
+        <v>-9.47440423920645</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2834,10 +2834,10 @@
         <v>-0.1447898360031475</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1581730378272771</v>
+        <v>-0.1501816591960114</v>
       </c>
       <c r="H73" t="n">
-        <v>9.243191506784138</v>
+        <v>-3.723896194444685</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2867,10 +2867,10 @@
         <v>0.1260511056358319</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1342291744735231</v>
+        <v>0.1466494249418579</v>
       </c>
       <c r="H74" t="n">
-        <v>6.487899329751248</v>
+        <v>16.34124445170325</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2900,10 +2900,10 @@
         <v>0.1351719772156388</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1539222465714536</v>
+        <v>0.1429515578838513</v>
       </c>
       <c r="H75" t="n">
-        <v>13.87141753937846</v>
+        <v>5.75532061338556</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2933,10 +2933,10 @@
         <v>-0.03443794504108685</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.08008979371880115</v>
+        <v>-0.0854431989084769</v>
       </c>
       <c r="H76" t="n">
-        <v>132.5626387499268</v>
+        <v>-148.1077160862452</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2966,10 +2966,10 @@
         <v>-0.04618700783972088</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1127078975940919</v>
+        <v>-0.09863998301548565</v>
       </c>
       <c r="H77" t="n">
-        <v>144.0251119648478</v>
+        <v>-113.5665149770866</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -2999,10 +2999,10 @@
         <v>0.09217153817668759</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08929613655468728</v>
+        <v>0.09570286514399941</v>
       </c>
       <c r="H78" t="n">
-        <v>-3.119619872772798</v>
+        <v>3.83125532801944</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3032,10 +3032,10 @@
         <v>0.0965044294726429</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09981289728137019</v>
+        <v>0.07576976962448762</v>
       </c>
       <c r="H79" t="n">
-        <v>3.428306686860601</v>
+        <v>-21.48570792186607</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3065,10 +3065,10 @@
         <v>-0.1624128583924336</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1709132958873332</v>
+        <v>-0.1570960312002562</v>
       </c>
       <c r="H80" t="n">
-        <v>5.233845139502579</v>
+        <v>3.273649170886771</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3098,10 +3098,10 @@
         <v>-0.2164484580182171</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1547007638426307</v>
+        <v>-0.1677007349458716</v>
       </c>
       <c r="H81" t="n">
-        <v>-28.52766646662343</v>
+        <v>22.52163102415944</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3131,10 +3131,10 @@
         <v>0.1387462790863944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1309371612932938</v>
+        <v>0.1475813847152427</v>
       </c>
       <c r="H82" t="n">
-        <v>-5.628343941561139</v>
+        <v>6.367814464665305</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3164,10 +3164,10 @@
         <v>0.1646195949787939</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2077545991558228</v>
+        <v>0.2040110508529877</v>
       </c>
       <c r="H83" t="n">
-        <v>26.20283702106394</v>
+        <v>23.928777056746</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3197,10 +3197,10 @@
         <v>0.01399502756006869</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02876603924959929</v>
+        <v>0.04946741685997214</v>
       </c>
       <c r="H84" t="n">
-        <v>105.544713121366</v>
+        <v>253.464233261784</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3230,10 +3230,10 @@
         <v>0.02263918370437177</v>
       </c>
       <c r="G85" t="n">
-        <v>0.08224597225579966</v>
+        <v>0.03036770679534123</v>
       </c>
       <c r="H85" t="n">
-        <v>263.2903612152652</v>
+        <v>34.13781694556874</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_quarter.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.08386773819799023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08407699145275002</v>
+        <v>0.1111556534725777</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2495038727118119</v>
+        <v>32.53684415593479</v>
       </c>
       <c r="I2" t="n">
-        <v>-10.87417598955746</v>
+        <v>-20.75143698842375</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1163557203900243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09506055060865062</v>
+        <v>0.08389868775330467</v>
       </c>
       <c r="H3" t="n">
-        <v>-18.30178156260155</v>
+        <v>-27.89466003727507</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.01542527876629707</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0803340366079255</v>
+        <v>-0.05581544082484503</v>
       </c>
       <c r="H4" t="n">
-        <v>-420.7947151233894</v>
+        <v>-261.8439684007336</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.07185167403132267</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03159704916454497</v>
+        <v>-0.102574474075603</v>
       </c>
       <c r="H5" t="n">
-        <v>56.0246165583133</v>
+        <v>-42.75864196412066</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03554566505616424</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04167323674598129</v>
+        <v>0.03126828667071268</v>
       </c>
       <c r="H6" t="n">
-        <v>17.23859064146115</v>
+        <v>-12.03347406411738</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.02029509832022692</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02941654177588967</v>
+        <v>0.04573922386390758</v>
       </c>
       <c r="H7" t="n">
-        <v>44.94407128134949</v>
+        <v>125.3707922090824</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1410978967445591</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1539740972955305</v>
+        <v>-0.1774185878208853</v>
       </c>
       <c r="H8" t="n">
-        <v>-9.125721111408348</v>
+        <v>-25.74148298048727</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.1368870102181998</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1401472245702647</v>
+        <v>-0.1369916666645661</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.381682781198953</v>
+        <v>-0.07645462210000037</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1080271231374757</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08264911212201734</v>
+        <v>-0.08584499642314515</v>
       </c>
       <c r="H10" t="n">
-        <v>23.49225849804611</v>
+        <v>20.53384934272617</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0665408616371513</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08259246908123424</v>
+        <v>-0.06352759849190184</v>
       </c>
       <c r="H11" t="n">
-        <v>-24.12293296052085</v>
+        <v>4.528440226218952</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.415196323414642</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3870528409123202</v>
+        <v>-0.3201859795774734</v>
       </c>
       <c r="H12" t="n">
-        <v>6.778355422530064</v>
+        <v>22.88323341974421</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.4488993880358551</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.5023355914908951</v>
+        <v>-0.4104599746162407</v>
       </c>
       <c r="H13" t="n">
-        <v>-11.90382630924235</v>
+        <v>8.5630353803343</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05073569601295556</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1013673296106214</v>
+        <v>-0.06096761323596082</v>
       </c>
       <c r="H14" t="n">
-        <v>-99.79489309604989</v>
+        <v>-20.16709738325557</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08269143740784293</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03268301130920041</v>
+        <v>0.03455798912318284</v>
       </c>
       <c r="H15" t="n">
-        <v>139.5240575490354</v>
+        <v>141.7914964432644</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1460226857953172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1284386701063236</v>
+        <v>0.09218367986620073</v>
       </c>
       <c r="H16" t="n">
-        <v>-12.04197525420225</v>
+        <v>-36.87030247107194</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1226214852840535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1518004176716578</v>
+        <v>0.1645109703162728</v>
       </c>
       <c r="H17" t="n">
-        <v>23.79593781628978</v>
+        <v>34.16161934034807</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.138457180644299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1207208176661175</v>
+        <v>0.1303941715958252</v>
       </c>
       <c r="H18" t="n">
-        <v>-12.80999865492479</v>
+        <v>-5.823467595507324</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09540674480902199</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1317670490046652</v>
+        <v>0.124536371284564</v>
       </c>
       <c r="H19" t="n">
-        <v>38.11083196311385</v>
+        <v>30.53204103530783</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.02563405214441146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04108054488050385</v>
+        <v>0.02404954895921134</v>
       </c>
       <c r="H20" t="n">
-        <v>60.2577097412198</v>
+        <v>-6.181243512628031</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07516711252654941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03634350327225206</v>
+        <v>0.04176899729658912</v>
       </c>
       <c r="H21" t="n">
-        <v>-51.64972811824406</v>
+        <v>-44.43181879331058</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1217,10 +1217,10 @@
         <v>0.1004365069723881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1112481793794625</v>
+        <v>0.1143781580447334</v>
       </c>
       <c r="H24" t="n">
-        <v>10.76468381168089</v>
+        <v>13.88105928074354</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1250,10 +1250,10 @@
         <v>0.1515465340033774</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1401739454478299</v>
+        <v>0.2015534352682634</v>
       </c>
       <c r="H25" t="n">
-        <v>-7.5043541116513</v>
+        <v>32.99772020109119</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1283,10 +1283,10 @@
         <v>0.07912471148881932</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06757116481109801</v>
+        <v>0.08045037412301928</v>
       </c>
       <c r="H26" t="n">
-        <v>-14.60169201293565</v>
+        <v>1.67540912220234</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1316,10 +1316,10 @@
         <v>0.09985262107691743</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07280490676445721</v>
+        <v>0.07534233868737929</v>
       </c>
       <c r="H27" t="n">
-        <v>-27.0876357783589</v>
+        <v>-24.54645869601925</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1349,10 +1349,10 @@
         <v>-0.2131191845751652</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2511424702665349</v>
+        <v>-0.2274080456215694</v>
       </c>
       <c r="H28" t="n">
-        <v>-17.8413246874822</v>
+        <v>-6.704633876526797</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1382,10 +1382,10 @@
         <v>-0.2053066758478273</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2221356457444656</v>
+        <v>-0.2314474168612717</v>
       </c>
       <c r="H29" t="n">
-        <v>-8.196991075493266</v>
+        <v>-12.73253337013739</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1415,10 +1415,10 @@
         <v>0.04413164265688801</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05440179504616999</v>
+        <v>0.06262079171487461</v>
       </c>
       <c r="H30" t="n">
-        <v>23.27162954057643</v>
+        <v>41.89544722306149</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1448,10 +1448,10 @@
         <v>0.02633311185268182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0202199629916218</v>
+        <v>0.02416952035079044</v>
       </c>
       <c r="H31" t="n">
-        <v>-23.2146845965622</v>
+        <v>-8.21623936432349</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1481,10 +1481,10 @@
         <v>0.09496050876403064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1147697996080134</v>
+        <v>0.08760144710160453</v>
       </c>
       <c r="H32" t="n">
-        <v>20.86055677440321</v>
+        <v>-7.749602185380873</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1514,10 +1514,10 @@
         <v>0.1039648869556523</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1148658987707932</v>
+        <v>0.1376624336354722</v>
       </c>
       <c r="H33" t="n">
-        <v>10.48528222782648</v>
+        <v>32.41243045278746</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1547,10 +1547,10 @@
         <v>0.04642769130193861</v>
       </c>
       <c r="G34" t="n">
-        <v>0.006739757988254588</v>
+        <v>0.03320383560028552</v>
       </c>
       <c r="H34" t="n">
-        <v>-85.48332299268742</v>
+        <v>-28.48269067624504</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1580,10 +1580,10 @@
         <v>0.007576527544790857</v>
       </c>
       <c r="G35" t="n">
-        <v>0.006582357565931249</v>
+        <v>0.003247918757827165</v>
       </c>
       <c r="H35" t="n">
-        <v>-13.12171008397028</v>
+        <v>-57.13182934231883</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1613,10 +1613,10 @@
         <v>0.05773624592896012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05956327806959027</v>
+        <v>0.05703820934694566</v>
       </c>
       <c r="H36" t="n">
-        <v>3.164445680930076</v>
+        <v>-1.209009298722578</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1646,10 +1646,10 @@
         <v>0.07032615937045415</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01330912456872372</v>
+        <v>0.06191837482118137</v>
       </c>
       <c r="H37" t="n">
-        <v>-81.07514374755516</v>
+        <v>-11.95541548768993</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1679,10 +1679,10 @@
         <v>0.05238641136844833</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00593796508307031</v>
+        <v>0.01620795712788744</v>
       </c>
       <c r="H38" t="n">
-        <v>-88.66506613459941</v>
+        <v>-69.06076078796021</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1712,10 +1712,10 @@
         <v>0.02073732932611748</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04721442479372522</v>
+        <v>0.0317706986608751</v>
       </c>
       <c r="H39" t="n">
-        <v>127.67842498533</v>
+        <v>53.20535330873933</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1745,10 +1745,10 @@
         <v>-0.008490989520810347</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.001755392655731389</v>
+        <v>-0.01861277774443698</v>
       </c>
       <c r="H40" t="n">
-        <v>79.32640652271277</v>
+        <v>-119.2062267750938</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1778,10 +1778,10 @@
         <v>0.03535585401105827</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03052246486384081</v>
+        <v>0.01002141067191119</v>
       </c>
       <c r="H41" t="n">
-        <v>-13.67068985437523</v>
+        <v>-71.65558306475418</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1811,10 +1811,10 @@
         <v>0.1336861257851496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1289266584298991</v>
+        <v>0.1372330581743312</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.560180480433381</v>
+        <v>2.653179130108065</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1844,10 +1844,10 @@
         <v>0.1489763344906571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1494987561138102</v>
+        <v>0.1552402280172432</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3506742362397638</v>
+        <v>4.204623202740255</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1877,10 +1877,10 @@
         <v>-0.008511481271239187</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.001494510762795267</v>
+        <v>-0.01033823828573436</v>
       </c>
       <c r="H44" t="n">
-        <v>82.44123772150789</v>
+        <v>-21.46226909607257</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1910,10 +1910,10 @@
         <v>-0.01097986505977733</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00404352435017862</v>
+        <v>-0.001141843211105237</v>
       </c>
       <c r="H45" t="n">
-        <v>136.8267217143798</v>
+        <v>89.60057154720266</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1943,10 +1943,10 @@
         <v>-0.003293045908710408</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.02747829481516197</v>
+        <v>-0.004306320902857896</v>
       </c>
       <c r="H46" t="n">
-        <v>-734.434003561243</v>
+        <v>-30.77014479109699</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1976,10 +1976,10 @@
         <v>-0.009278481095242833</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.005188237060141277</v>
+        <v>0.007219883499418782</v>
       </c>
       <c r="H47" t="n">
-        <v>44.08312085906672</v>
+        <v>177.8132048263857</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2009,10 +2009,10 @@
         <v>0.05027211201244799</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06605263008404766</v>
+        <v>0.06565243419680943</v>
       </c>
       <c r="H48" t="n">
-        <v>31.39020311637638</v>
+        <v>30.59414368855855</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2042,10 +2042,10 @@
         <v>0.0660647836333926</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06842467974841773</v>
+        <v>0.06981191757370239</v>
       </c>
       <c r="H49" t="n">
-        <v>3.572093913333144</v>
+        <v>5.671908290963947</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>0.1612576803179708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1427981168115234</v>
+        <v>0.1613328051572005</v>
       </c>
       <c r="H50" t="n">
-        <v>-11.44724609088292</v>
+        <v>0.04658682865930042</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2108,10 +2108,10 @@
         <v>0.1711149594717241</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1400383794659987</v>
+        <v>0.153986857388395</v>
       </c>
       <c r="H51" t="n">
-        <v>-18.16122921202611</v>
+        <v>-10.00970466650488</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2141,10 +2141,10 @@
         <v>-0.1604310016173561</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1752230513571305</v>
+        <v>-0.1756340647636075</v>
       </c>
       <c r="H52" t="n">
-        <v>-9.220194096309964</v>
+        <v>-9.476387352185338</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2174,10 +2174,10 @@
         <v>-0.1260545003542003</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.144913957043227</v>
+        <v>-0.1369436714253742</v>
       </c>
       <c r="H53" t="n">
-        <v>-14.96135134884795</v>
+        <v>-8.638462760612626</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2207,10 +2207,10 @@
         <v>0.09372239519925994</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09126263002600364</v>
+        <v>0.08679391223018942</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.624522311904939</v>
+        <v>-7.392558581478963</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2240,10 +2240,10 @@
         <v>0.113080746643218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1208028971734723</v>
+        <v>0.1018389553459934</v>
       </c>
       <c r="H55" t="n">
-        <v>6.828881803034531</v>
+        <v>-9.941384038340033</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2273,10 +2273,10 @@
         <v>-0.007300771504361519</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0073564917752215</v>
+        <v>-0.00248346515604142</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.7632107213147814</v>
+        <v>65.98352441851132</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2306,10 +2306,10 @@
         <v>-0.02286739124119412</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.02343193090678332</v>
+        <v>-0.017452310778663</v>
       </c>
       <c r="H57" t="n">
-        <v>-2.468754129558146</v>
+        <v>23.68035953649231</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2339,10 +2339,10 @@
         <v>0.05638797256277781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03185962551019064</v>
+        <v>0.03663218986504747</v>
       </c>
       <c r="H58" t="n">
-        <v>-43.49925336520885</v>
+        <v>-35.03545490261394</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2372,10 +2372,10 @@
         <v>0.07181992597016275</v>
       </c>
       <c r="G59" t="n">
-        <v>0.07433733047692882</v>
+        <v>0.06476903508343014</v>
       </c>
       <c r="H59" t="n">
-        <v>3.505161656407051</v>
+        <v>-9.817457747954053</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2405,10 +2405,10 @@
         <v>0.06997395344439951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06637762220727771</v>
+        <v>0.06454788501409114</v>
       </c>
       <c r="H60" t="n">
-        <v>-5.139528438934647</v>
+        <v>-7.754411696374788</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2438,10 +2438,10 @@
         <v>0.04752678553020755</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0791779447804694</v>
+        <v>0.08298583384521864</v>
       </c>
       <c r="H61" t="n">
-        <v>66.59646533457367</v>
+        <v>74.60855582684772</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2471,10 +2471,10 @@
         <v>0.07296032751184069</v>
       </c>
       <c r="G62" t="n">
-        <v>0.07224223508638043</v>
+        <v>0.06767514962258132</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.9842231387238702</v>
+        <v>-7.243906475613934</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2504,10 +2504,10 @@
         <v>0.06539350454256343</v>
       </c>
       <c r="G63" t="n">
-        <v>0.08046696407190683</v>
+        <v>0.07179579025355846</v>
       </c>
       <c r="H63" t="n">
-        <v>23.05039259599913</v>
+        <v>9.790400064624009</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2537,10 +2537,10 @@
         <v>-0.04141550755634531</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.03535014524168426</v>
+        <v>-0.04895457915879339</v>
       </c>
       <c r="H64" t="n">
-        <v>14.64514785049825</v>
+        <v>-18.20349923803606</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2570,10 +2570,10 @@
         <v>-0.04932370769039912</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01803228992548703</v>
+        <v>0.02155267568765331</v>
       </c>
       <c r="H65" t="n">
-        <v>136.5590722390017</v>
+        <v>143.6963819162535</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2603,10 +2603,10 @@
         <v>0.01893397540736123</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03136840711406265</v>
+        <v>0.03586475203789064</v>
       </c>
       <c r="H66" t="n">
-        <v>65.67258823980045</v>
+        <v>89.4200835601962</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2636,10 +2636,10 @@
         <v>0.02614988585447288</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05162462178504321</v>
+        <v>0.01278534331237594</v>
       </c>
       <c r="H67" t="n">
-        <v>97.41815345711319</v>
+        <v>-51.107460340256</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2669,10 +2669,10 @@
         <v>0.0005699533762532117</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.001515185505012106</v>
+        <v>-0.009967766394147162</v>
       </c>
       <c r="H68" t="n">
-        <v>-365.8437633921408</v>
+        <v>-1848.873997321284</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2702,10 +2702,10 @@
         <v>-0.01291230679249397</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01414314016496307</v>
+        <v>-0.00834586323387913</v>
       </c>
       <c r="H69" t="n">
-        <v>-9.532250063827426</v>
+        <v>35.36504849210485</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2735,10 +2735,10 @@
         <v>-0.02744806811673924</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.0482052701084016</v>
+        <v>-0.02930175174880338</v>
       </c>
       <c r="H70" t="n">
-        <v>-75.62354444538688</v>
+        <v>-6.753421130333289</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2768,10 +2768,10 @@
         <v>-0.05509195098979366</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06732241194170754</v>
+        <v>-0.07799862044958733</v>
       </c>
       <c r="H71" t="n">
-        <v>-22.20008682244654</v>
+        <v>-41.57897668942122</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2801,10 +2801,10 @@
         <v>-0.1483341461777897</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1623879228114489</v>
+        <v>-0.1220531011688165</v>
       </c>
       <c r="H72" t="n">
-        <v>-9.47440423920645</v>
+        <v>17.71746134398035</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2834,10 +2834,10 @@
         <v>-0.1447898360031475</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1501816591960114</v>
+        <v>-0.1723665064113477</v>
       </c>
       <c r="H73" t="n">
-        <v>-3.723896194444685</v>
+        <v>-19.04599878654518</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2867,10 +2867,10 @@
         <v>0.1260511056358319</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1466494249418579</v>
+        <v>0.1166404176091191</v>
       </c>
       <c r="H74" t="n">
-        <v>16.34124445170325</v>
+        <v>-7.465771901994078</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2900,10 +2900,10 @@
         <v>0.1351719772156388</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1429515578838513</v>
+        <v>0.1424192656590357</v>
       </c>
       <c r="H75" t="n">
-        <v>5.75532061338556</v>
+        <v>5.361531726235942</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2933,10 +2933,10 @@
         <v>-0.03443794504108685</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.0854431989084769</v>
+        <v>-0.08696600642884081</v>
       </c>
       <c r="H76" t="n">
-        <v>-148.1077160862452</v>
+        <v>-152.5296045541752</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2966,10 +2966,10 @@
         <v>-0.04618700783972088</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.09863998301548565</v>
+        <v>-0.04955804658092382</v>
       </c>
       <c r="H77" t="n">
-        <v>-113.5665149770866</v>
+        <v>-7.298673152634586</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -2999,10 +2999,10 @@
         <v>0.09217153817668759</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09570286514399941</v>
+        <v>0.1033959196699648</v>
       </c>
       <c r="H78" t="n">
-        <v>3.83125532801944</v>
+        <v>12.17770877574019</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3032,10 +3032,10 @@
         <v>0.0965044294726429</v>
       </c>
       <c r="G79" t="n">
-        <v>0.07576976962448762</v>
+        <v>0.109711089081868</v>
       </c>
       <c r="H79" t="n">
-        <v>-21.48570792186607</v>
+        <v>13.68502946589506</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3065,10 +3065,10 @@
         <v>-0.1624128583924336</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1570960312002562</v>
+        <v>-0.2040925757826397</v>
       </c>
       <c r="H80" t="n">
-        <v>3.273649170886771</v>
+        <v>-25.66281869720966</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3098,10 +3098,10 @@
         <v>-0.2164484580182171</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1677007349458716</v>
+        <v>-0.1599783064750002</v>
       </c>
       <c r="H81" t="n">
-        <v>22.52163102415944</v>
+        <v>26.08942196227805</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3131,10 +3131,10 @@
         <v>0.1387462790863944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1475813847152427</v>
+        <v>0.1403147815018311</v>
       </c>
       <c r="H82" t="n">
-        <v>6.367814464665305</v>
+        <v>1.130482507902096</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3164,10 +3164,10 @@
         <v>0.1646195949787939</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2040110508529877</v>
+        <v>0.1830719356419409</v>
       </c>
       <c r="H83" t="n">
-        <v>23.928777056746</v>
+        <v>11.20907912908183</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3197,10 +3197,10 @@
         <v>0.01399502756006869</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04946741685997214</v>
+        <v>0.02642731903676478</v>
       </c>
       <c r="H84" t="n">
-        <v>253.464233261784</v>
+        <v>88.83363339825442</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3230,14 +3230,14 @@
         <v>0.02263918370437177</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03036770679534123</v>
+        <v>0.02504265789046577</v>
       </c>
       <c r="H85" t="n">
-        <v>34.13781694556874</v>
+        <v>10.61643483916725</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>